--- a/TestPlay.xlsx
+++ b/TestPlay.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22821"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{4B14F465-D8E0-498F-93DE-DC1F5AAE4066}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6D7C5D03-5EAF-450D-9ADC-8F17BAC567B3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" tabRatio="866" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" tabRatio="866" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="3" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <sheet name="Macro" sheetId="20" r:id="rId13"/>
     <sheet name="Start" sheetId="16" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="127">
   <si>
     <t>CharacterName</t>
     <phoneticPr fontId="1"/>
@@ -346,21 +345,297 @@
     <t>ああああああああああああああああああああああああああああああああああ</t>
   </si>
   <si>
-    <t>EndScenario</t>
-  </si>
-  <si>
-    <t>シナリオ終了</t>
+    <t>うたこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>笑い</t>
+    <rPh sb="0" eb="1">
+      <t>ワラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ため息</t>
+    <rPh sb="2" eb="3">
+      <t>イキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>照れ</t>
+    <rPh sb="0" eb="1">
+      <t>テ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビックリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どや顔</t>
+    <rPh sb="2" eb="3">
+      <t>ガオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>怒</t>
+    <rPh sb="0" eb="1">
+      <t>オコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロボ子</t>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポーズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキャン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>照れ・伏し目</t>
+    <rPh sb="0" eb="1">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>照れ・目逸らし</t>
+    <rPh sb="0" eb="1">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Utako/utako.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Utako/utako_smile.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Utako/utako_tameiki.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Utako/utako_tere.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Run/run.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Run/run_bikkuri.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Run/run_doya.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Run/run_oko.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Run/run_tere.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Robo/robo.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Robo/robo_pose.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Robo/robo_scan.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Robo/robo_tere_huse.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Robo/robo_tere_sorasi.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うたこ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キャラ表示</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表情指定</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>指定なしの時は変化なし</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>笑い</t>
+    <rPh sb="0" eb="1">
+      <t>ワラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CharacterOff</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キャラの表示を消すときは</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キャラクターオフコマンド</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ロボ子</t>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キャラ左</t>
+    <rPh sb="3" eb="4">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キャラ中央</t>
+    <rPh sb="3" eb="5">
+      <t>チュウオウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キャラ右</t>
+    <rPh sb="3" eb="4">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>同時に表示するにはレイヤーを指定します</t>
+    <rPh sb="0" eb="2">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>同じレイヤーに二人以上のキャラは表示できません。</t>
+    <rPh sb="0" eb="1">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フタリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キャラ中央</t>
+    <rPh sb="3" eb="5">
+      <t>チュウオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Character</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -428,9 +703,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -837,15 +1115,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
+      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
@@ -855,7 +1133,7 @@
     <col min="7" max="7" width="5.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.75" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
     <col min="12" max="12" width="8.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.25" customWidth="1"/>
@@ -930,6 +1208,127 @@
         <v>19</v>
       </c>
     </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="C12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="C15" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
@@ -938,17 +1337,17 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -973,7 +1372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -981,7 +1380,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
@@ -1006,7 +1405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1014,7 +1413,7 @@
       <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1029,7 +1428,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1037,7 +1436,7 @@
       <selection pane="bottomLeft" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="5.125" bestFit="1" customWidth="1"/>
@@ -1095,15 +1494,15 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:L4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="5.125" bestFit="1" customWidth="1"/>
@@ -1157,17 +1556,92 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="I3" t="s">
+    <row r="3" spans="1:12" ht="40.5">
+      <c r="I3" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>82</v>
+      <c r="B4" t="s">
+        <v>110</v>
       </c>
       <c r="I4" t="s">
-        <v>83</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="I8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="I9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="B12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="27">
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1178,7 +1652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1186,7 +1660,7 @@
       <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.375" bestFit="1" customWidth="1"/>
@@ -1263,7 +1737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1271,7 +1745,7 @@
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
@@ -1294,19 +1768,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="9.375" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="7" bestFit="1" customWidth="1"/>
@@ -1373,6 +1848,51 @@
         <v>38</v>
       </c>
     </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3">
+        <v>-250</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="B4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4">
+        <v>250</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>190</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
@@ -1381,15 +1901,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="N2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N1" sqref="N1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.125" customWidth="1"/>
@@ -1462,7 +1982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1470,7 +1990,7 @@
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.375" bestFit="1" customWidth="1"/>
@@ -1544,14 +2064,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
     <col min="2" max="59" width="8.375" customWidth="1"/>
@@ -1705,7 +2225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1713,7 +2233,7 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
@@ -1751,7 +2271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1759,7 +2279,7 @@
       <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.375" bestFit="1" customWidth="1"/>
